--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H2">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6444693044665</v>
+        <v>10.6794795</v>
       </c>
       <c r="N2">
-        <v>10.6444693044665</v>
+        <v>21.358959</v>
       </c>
       <c r="O2">
-        <v>0.1476353775197148</v>
+        <v>0.1386817475209803</v>
       </c>
       <c r="P2">
-        <v>0.1476353775197148</v>
+        <v>0.1052706227093344</v>
       </c>
       <c r="Q2">
-        <v>4.215909176520265</v>
+        <v>3.938770030924999</v>
       </c>
       <c r="R2">
-        <v>4.215909176520265</v>
+        <v>23.63262018555</v>
       </c>
       <c r="S2">
-        <v>0.1476353775197148</v>
+        <v>0.06664694167348265</v>
       </c>
       <c r="T2">
-        <v>0.1476353775197148</v>
+        <v>0.06118388545383265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H3">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.6712015127492</v>
+        <v>26.32069366666667</v>
       </c>
       <c r="N3">
-        <v>24.6712015127492</v>
+        <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3421816574426433</v>
+        <v>0.3417956646349414</v>
       </c>
       <c r="P3">
-        <v>0.3421816574426433</v>
+        <v>0.3891756820777128</v>
       </c>
       <c r="Q3">
-        <v>9.771416674548156</v>
+        <v>9.707510502494443</v>
       </c>
       <c r="R3">
-        <v>9.771416674548156</v>
+        <v>87.36759452244999</v>
       </c>
       <c r="S3">
-        <v>0.3421816574426433</v>
+        <v>0.1642583550638341</v>
       </c>
       <c r="T3">
-        <v>0.3421816574426433</v>
+        <v>0.2261911228492108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H4">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.64877581538767</v>
+        <v>5.92768</v>
       </c>
       <c r="N4">
-        <v>5.64877581538767</v>
+        <v>17.78304</v>
       </c>
       <c r="O4">
-        <v>0.07834671003081929</v>
+        <v>0.07697575721224656</v>
       </c>
       <c r="P4">
-        <v>0.07834671003081929</v>
+        <v>0.08764620478296728</v>
       </c>
       <c r="Q4">
-        <v>2.237286342326693</v>
+        <v>2.186227178666666</v>
       </c>
       <c r="R4">
-        <v>2.237286342326693</v>
+        <v>19.676044608</v>
       </c>
       <c r="S4">
-        <v>0.07834671003081929</v>
+        <v>0.03699260279670649</v>
       </c>
       <c r="T4">
-        <v>0.07834671003081929</v>
+        <v>0.05094047338079184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H5">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.98816026829204</v>
+        <v>6.071436333333334</v>
       </c>
       <c r="N5">
-        <v>5.98816026829204</v>
+        <v>18.214309</v>
       </c>
       <c r="O5">
-        <v>0.08305386361412043</v>
+        <v>0.07884255039480526</v>
       </c>
       <c r="P5">
-        <v>0.08305386361412043</v>
+        <v>0.08977177448817772</v>
       </c>
       <c r="Q5">
-        <v>2.371704882926689</v>
+        <v>2.239246910338889</v>
       </c>
       <c r="R5">
-        <v>2.371704882926689</v>
+        <v>20.15322219305</v>
       </c>
       <c r="S5">
-        <v>0.08305386361412043</v>
+        <v>0.0378897364035326</v>
       </c>
       <c r="T5">
-        <v>0.08305386361412043</v>
+        <v>0.05217586659896267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H6">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.951221760547551</v>
+        <v>10.56170766666667</v>
       </c>
       <c r="N6">
-        <v>9.951221760547551</v>
+        <v>31.685123</v>
       </c>
       <c r="O6">
-        <v>0.1380202562831734</v>
+        <v>0.1371523842542203</v>
       </c>
       <c r="P6">
-        <v>0.1380202562831734</v>
+        <v>0.1561645691080663</v>
       </c>
       <c r="Q6">
-        <v>3.941337603395275</v>
+        <v>3.895333815927777</v>
       </c>
       <c r="R6">
-        <v>3.941337603395275</v>
+        <v>35.05800434334999</v>
       </c>
       <c r="S6">
-        <v>0.1380202562831734</v>
+        <v>0.06591196835320559</v>
       </c>
       <c r="T6">
-        <v>0.1380202562831734</v>
+        <v>0.09076373695097212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3688166666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.10645</v>
+      </c>
+      <c r="I7">
+        <v>0.480574717760894</v>
+      </c>
+      <c r="J7">
+        <v>0.5812056951802134</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.446105</v>
+      </c>
+      <c r="N7">
+        <v>34.89221</v>
+      </c>
+      <c r="O7">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P7">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q7">
+        <v>6.434414292416665</v>
+      </c>
+      <c r="R7">
+        <v>38.6064857545</v>
+      </c>
+      <c r="S7">
+        <v>0.1088751134701325</v>
+      </c>
+      <c r="T7">
+        <v>0.09995060994644328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3986325</v>
+      </c>
+      <c r="H8">
+        <v>0.797265</v>
+      </c>
+      <c r="I8">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J8">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.6794795</v>
+      </c>
+      <c r="N8">
+        <v>21.358959</v>
+      </c>
+      <c r="O8">
+        <v>0.1386817475209803</v>
+      </c>
+      <c r="P8">
+        <v>0.1052706227093344</v>
+      </c>
+      <c r="Q8">
+        <v>4.25718761178375</v>
+      </c>
+      <c r="R8">
+        <v>17.028750447135</v>
+      </c>
+      <c r="S8">
+        <v>0.07203480584749761</v>
+      </c>
+      <c r="T8">
+        <v>0.04408673725550173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.396065699090441</v>
-      </c>
-      <c r="H7">
-        <v>0.396065699090441</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="N7">
-        <v>15.1958908183617</v>
-      </c>
-      <c r="O7">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="P7">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="Q7">
-        <v>6.01857112027644</v>
-      </c>
-      <c r="R7">
-        <v>6.01857112027644</v>
-      </c>
-      <c r="S7">
-        <v>0.2107621351095285</v>
-      </c>
-      <c r="T7">
-        <v>0.2107621351095285</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3986325</v>
+      </c>
+      <c r="H9">
+        <v>0.797265</v>
+      </c>
+      <c r="I9">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J9">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.32069366666667</v>
+      </c>
+      <c r="N9">
+        <v>78.962081</v>
+      </c>
+      <c r="O9">
+        <v>0.3417956646349414</v>
+      </c>
+      <c r="P9">
+        <v>0.3891756820777128</v>
+      </c>
+      <c r="Q9">
+        <v>10.4922839180775</v>
+      </c>
+      <c r="R9">
+        <v>62.953703508465</v>
+      </c>
+      <c r="S9">
+        <v>0.1775373095711072</v>
+      </c>
+      <c r="T9">
+        <v>0.162984559228502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3986325</v>
+      </c>
+      <c r="H10">
+        <v>0.797265</v>
+      </c>
+      <c r="I10">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J10">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.92768</v>
+      </c>
+      <c r="N10">
+        <v>17.78304</v>
+      </c>
+      <c r="O10">
+        <v>0.07697575721224656</v>
+      </c>
+      <c r="P10">
+        <v>0.08764620478296728</v>
+      </c>
+      <c r="Q10">
+        <v>2.3629658976</v>
+      </c>
+      <c r="R10">
+        <v>14.1777953856</v>
+      </c>
+      <c r="S10">
+        <v>0.03998315441554007</v>
+      </c>
+      <c r="T10">
+        <v>0.03670573140217544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3986325</v>
+      </c>
+      <c r="H11">
+        <v>0.797265</v>
+      </c>
+      <c r="I11">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J11">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.071436333333334</v>
+      </c>
+      <c r="N11">
+        <v>18.214309</v>
+      </c>
+      <c r="O11">
+        <v>0.07884255039480526</v>
+      </c>
+      <c r="P11">
+        <v>0.08977177448817772</v>
+      </c>
+      <c r="Q11">
+        <v>2.4202718441475</v>
+      </c>
+      <c r="R11">
+        <v>14.521631064885</v>
+      </c>
+      <c r="S11">
+        <v>0.04095281399127266</v>
+      </c>
+      <c r="T11">
+        <v>0.03759590788921504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3986325</v>
+      </c>
+      <c r="H12">
+        <v>0.797265</v>
+      </c>
+      <c r="I12">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J12">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10.56170766666667</v>
+      </c>
+      <c r="N12">
+        <v>31.685123</v>
+      </c>
+      <c r="O12">
+        <v>0.1371523842542203</v>
+      </c>
+      <c r="P12">
+        <v>0.1561645691080663</v>
+      </c>
+      <c r="Q12">
+        <v>4.2102399314325</v>
+      </c>
+      <c r="R12">
+        <v>25.261439588595</v>
+      </c>
+      <c r="S12">
+        <v>0.07124041590101468</v>
+      </c>
+      <c r="T12">
+        <v>0.06540083215709412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3986325</v>
+      </c>
+      <c r="H13">
+        <v>0.797265</v>
+      </c>
+      <c r="I13">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J13">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.446105</v>
+      </c>
+      <c r="N13">
+        <v>34.89221</v>
+      </c>
+      <c r="O13">
+        <v>0.2265518959828062</v>
+      </c>
+      <c r="P13">
+        <v>0.1719711468337415</v>
+      </c>
+      <c r="Q13">
+        <v>6.9545844514125</v>
+      </c>
+      <c r="R13">
+        <v>27.81833780565</v>
+      </c>
+      <c r="S13">
+        <v>0.1176767825126737</v>
+      </c>
+      <c r="T13">
+        <v>0.07202053688729822</v>
       </c>
     </row>
   </sheetData>
